--- a/data/output/FV2504_FV2410/MSCONS/13014.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13014.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="235">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="235">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -814,6 +814,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U98" totalsRowShown="0">
+  <autoFilter ref="A1:U98"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,7 +1133,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5852,5 +5885,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/MSCONS/13014.xlsx
+++ b/data/output/FV2504_FV2410/MSCONS/13014.xlsx
@@ -1553,7 +1553,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="2"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="2"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N28" s="2"/>
@@ -3085,7 +3085,7 @@
         <v>224</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N65" s="2"/>
@@ -4891,7 +4891,7 @@
         <v>228</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N93" s="2"/>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2"/>
